--- a/data/Tabibliomythe.xlsx
+++ b/data/Tabibliomythe.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegopellizzari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegopellizzari/Documents/OBVIL/mythographie/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7032,8 +7032,8 @@
   <dimension ref="A1:K972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
